--- a/pubs/talks/2010/2010workshop/workshop-registrants-2010.xlsx
+++ b/pubs/talks/2010/2010workshop/workshop-registrants-2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="23980" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="7340" yWindow="820" windowWidth="23980" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+  <si>
+    <t>858-534-5031</t>
+  </si>
+  <si>
+    <t>10100 Hopkins Drive, La Jolla, 92093, CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Considering using Inca for reporting and performance monitoring in the MIG Data Engine project.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>We have a number of diverse resources in our NSF funded facility project. INCA would be an ideal solution for reporting and  monitoring all the different software and hardware resources.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,6 +213,15 @@
   <si>
     <t>SDSC - UC San Diego,  MC 0505, 9500 Gilman Drive, La Jolla, CA 92093</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>chandras@sdsc.edu</t>
   </si>
 </sst>
 </file>
@@ -584,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -601,210 +621,235 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9153093711</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3302219763</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
-        <v>8588220936</v>
+        <v>9153093711</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="2">
+        <v>8588220936</v>
+      </c>
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>8588223692</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3302219763</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8588220739</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10" s="2">
+        <v>8588220739</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A3:XFD10">
+    <sortCondition ref="C3:C10"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/pubs/talks/2010/2010workshop/workshop-registrants-2010.xlsx
+++ b/pubs/talks/2010/2010workshop/workshop-registrants-2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="820" windowWidth="23980" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24000" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+  <si>
+    <t>Viswanath</t>
+  </si>
+  <si>
+    <t>Nandigam</t>
+  </si>
+  <si>
+    <t>viswanat@sdsc.edu</t>
+  </si>
+  <si>
+    <t>SDSC - UC San Diego,  MC 0505, 9500 Gilman Drive, La Jolla, CA 92093</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Chandra</t>
+  </si>
+  <si>
+    <t>chandras@sdsc.edu</t>
+  </si>
+  <si>
+    <t>srappoport@ucsd.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rappoport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSD A&amp;PS IT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>858 246-0988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9500 Gilman Drive 0908-S, La Jolla, CA 92093</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest in network and server monitoring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>858-534-5031</t>
   </si>
@@ -200,40 +250,12 @@
   </si>
   <si>
     <t>Gain insight into the application and discuss future developments.</t>
-  </si>
-  <si>
-    <t>Viswanath</t>
-  </si>
-  <si>
-    <t>Nandigam</t>
-  </si>
-  <si>
-    <t>viswanat@sdsc.edu</t>
-  </si>
-  <si>
-    <t>SDSC - UC San Diego,  MC 0505, 9500 Gilman Drive, La Jolla, CA 92093</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>Chandra</t>
-  </si>
-  <si>
-    <t>chandras@sdsc.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -604,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -621,229 +643,252 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>3302219763</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>9153093711</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>8588220936</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>8588223692</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>8588220739</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pubs/talks/2010/2010workshop/workshop-registrants-2010.xlsx
+++ b/pubs/talks/2010/2010workshop/workshop-registrants-2010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24000" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="5120" windowWidth="24000" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+  <si>
+    <t>I work on the TAS (Technology Audit Service for TeraGrid/XD) project, which leverages INCA as the HPC application kernel performance monitoring and reporting framework.</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>jab@sdsc.edu</t>
+  </si>
+  <si>
+    <t>10100 Hopkins Dr, La Jolla, Ca 92093</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will be using Inca to monitor Dash and Gordon</t>
+  </si>
+  <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>Saverchenko</t>
+  </si>
+  <si>
+    <t>Leibniz Supercomputer Centre</t>
+  </si>
+  <si>
+    <t>ilya.saverchenko@lrz.de</t>
+  </si>
+  <si>
+    <t>49 89 358318759</t>
+  </si>
+  <si>
+    <t>Boltzmannstrasse 1, 86748, Garching, Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain insight into the application and discuss future developments.</t>
+  </si>
+  <si>
+    <t>Frabetti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDSC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jfrabetti@sdsc.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>858-246-0778</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDSC, E-103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We may be using Inca in the CMS project.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Viswanath</t>
   </si>
@@ -209,47 +278,6 @@
   </si>
   <si>
     <t>701 ELLICOTT ST, BUFFALO, NY 14203</t>
-  </si>
-  <si>
-    <t>I work on the TAS (Technology Audit Service for TeraGrid/XD) project, which leverages INCA as the HPC application kernel performance monitoring and reporting framework.</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>jab@sdsc.edu</t>
-  </si>
-  <si>
-    <t>10100 Hopkins Dr, La Jolla, Ca 92093</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Will be using Inca to monitor Dash and Gordon</t>
-  </si>
-  <si>
-    <t>Ilya</t>
-  </si>
-  <si>
-    <t>Saverchenko</t>
-  </si>
-  <si>
-    <t>Leibniz Supercomputer Centre</t>
-  </si>
-  <si>
-    <t>ilya.saverchenko@lrz.de</t>
-  </si>
-  <si>
-    <t>49 89 358318759</t>
-  </si>
-  <si>
-    <t>Boltzmannstrasse 1, 86748, Garching, Germany</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gain insight into the application and discuss future developments.</t>
   </si>
 </sst>
 </file>
@@ -291,11 +319,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -643,257 +674,280 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
         <v>3302219763</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>9153093711</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>8588220936</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>8588223692</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8588220739</v>
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8588220739</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:XFD10">
-    <sortCondition ref="C3:C10"/>
+  <sortState ref="A1:XFD1048576">
+    <sortCondition ref="C2:C1048576"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
